--- a/biology/Botanique/Critoniopsis/Critoniopsis.xlsx
+++ b/biology/Botanique/Critoniopsis/Critoniopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Critoniopsis est un genre de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 août 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 août 2018) :
 Critoniopsis aristeguietae (Cuatrec.) H. Rob.
 Critoniopsis autumnalis (McVaugh) H. Rob.
 Critoniopsis ayabacensis Sagást. &amp; M.O.Dillon
@@ -582,7 +596,7 @@
 Critoniopsis yungasensis (Britt.) H. Rob.
 Critoniopsis zamorensis Haro-Carr. &amp; H.Rob.
 Critoniopsis zarucchii H. Rob.
-Selon The Plant List            (1 août 2018)[4] :
+Selon The Plant List            (1 août 2018) :
 Critoniopsis aristeguietae (Cuatrec.) H.Rob.
 Critoniopsis ayabacensis Sagást. &amp; M.O.Dillon
 Critoniopsis bitriflora (Cuatrec.) H.Rob.
@@ -658,7 +672,7 @@
 Critoniopsis yungasensis (Britton) H.Rob.
 Critoniopsis zamorensis Haro-Carr. &amp; H.Rob.
 Critoniopsis zarucchii H.Rob.
-Selon Tropicos                                           (1 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Critoniopsis angusta (Gleason) H. Rob.
 Critoniopsis aristeguietae (Cuatrec.) H. Rob.
 Critoniopsis autumnalis (McVaugh) H. Rob.
@@ -757,7 +771,7 @@
 Critoniopsis yungasensis (Britton) H. Rob.
 Critoniopsis zamorensis X. Haro &amp; H. Rob.
 Critoniopsis zarucchii H. Rob.
-Selon World Register of Marine Species                               (1 août 2018)[2] :
+Selon World Register of Marine Species                               (1 août 2018) :
 Critoniopsis aristeguietae (Cuatrec.) H.Rob.
 Critoniopsis ayabacensis Sagást. &amp; M.O.Dillon
 Critoniopsis baadii (McVaugh) H.Rob.
